--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1226303.893732267</v>
+        <v>1221015.778237493</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791237</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9855322.727546809</v>
+        <v>9853552.789375553</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>243.3571876051719</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>24.24561587589875</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>87.63261027225083</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>71.67815095003681</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>25.79133114399668</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>44.33045254275991</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>100.3176521874729</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>136.2570649568116</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -981,16 +981,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>61.21485839246436</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09591959794396</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1029,7 +1029,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>165.2599640362305</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>101.065178373629</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>373.4192441275644</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>47.1445242432434</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1148,10 +1148,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11.61260049965499</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>82.54143537751555</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372793</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362806</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>64.86783648999454</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993879</v>
+        <v>97.42475435993866</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177851</v>
+        <v>82.99846957177839</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465762</v>
+        <v>82.9249116246575</v>
       </c>
       <c r="F13" t="n">
-        <v>23.90491312517009</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681703</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.52459803703788</v>
       </c>
       <c r="I13" t="n">
-        <v>60.685168714561</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901692</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>84.0027552744598</v>
       </c>
       <c r="W14" t="n">
-        <v>200.2442118057463</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>82.9249116246575</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442477</v>
       </c>
       <c r="G16" t="n">
-        <v>69.85048602747095</v>
+        <v>95.4932009668169</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>82.84545313338894</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456087</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>87.40356964983098</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.905627100594</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838894</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828906</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431739</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459979</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643952</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931863</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390859</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147803</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805008</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922201</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367792</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920524</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1039.410840785205</v>
+        <v>1650.177071018759</v>
       </c>
       <c r="C2" t="n">
-        <v>1039.410840785205</v>
+        <v>1257.00156952169</v>
       </c>
       <c r="D2" t="n">
-        <v>793.5954997698793</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E2" t="n">
-        <v>793.5954997698793</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="L2" t="n">
-        <v>547.1277883310449</v>
+        <v>259.7298875736956</v>
       </c>
       <c r="M2" t="n">
-        <v>1085.386573341138</v>
+        <v>773.3325661833838</v>
       </c>
       <c r="N2" t="n">
-        <v>1613.1978569786</v>
+        <v>1286.935244793072</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465279</v>
+        <v>1726.974845685401</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.2694146788</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>2008.2694146788</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U2" t="n">
-        <v>1752.516685113399</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V2" t="n">
-        <v>1410.409875816917</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W2" t="n">
-        <v>1039.410840785205</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="X2" t="n">
-        <v>1039.410840785205</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Y2" t="n">
-        <v>1039.410840785205</v>
+        <v>2050.671816730156</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793.4743885466976</v>
+        <v>778.7327876102504</v>
       </c>
       <c r="C3" t="n">
-        <v>642.8201581067898</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>512.7311907282701</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>376.2846998391578</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>251.8528937222896</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>131.793075794154</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475499</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585115</v>
+        <v>1155.938290490837</v>
       </c>
       <c r="N3" t="n">
-        <v>1769.161601021352</v>
+        <v>1155.938290490837</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021352</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1766.549265057786</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1544.009263428853</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="W3" t="n">
-        <v>1313.89201756214</v>
+        <v>1299.150416625693</v>
       </c>
       <c r="X3" t="n">
-        <v>1124.584939912152</v>
+        <v>1109.843338975704</v>
       </c>
       <c r="Y3" t="n">
-        <v>945.2707229876589</v>
+        <v>930.5291220512117</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>540.5444058454418</v>
+        <v>354.4622946408508</v>
       </c>
       <c r="C4" t="n">
-        <v>540.5444058454418</v>
+        <v>354.4622946408508</v>
       </c>
       <c r="D4" t="n">
-        <v>384.9112927479566</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="E4" t="n">
-        <v>229.3524806071591</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="F4" t="n">
-        <v>229.3524806071591</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G4" t="n">
-        <v>229.3524806071591</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865304</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865304</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>585.3226407371185</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U4" t="n">
-        <v>540.5444058454418</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="V4" t="n">
-        <v>540.5444058454418</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="W4" t="n">
-        <v>540.5444058454418</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="X4" t="n">
-        <v>540.5444058454418</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="Y4" t="n">
-        <v>540.5444058454418</v>
+        <v>380.5141442812514</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1276.13637826023</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="C5" t="n">
-        <v>1276.13637826023</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="D5" t="n">
-        <v>1276.13637826023</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="E5" t="n">
-        <v>873.552853376774</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475499</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1040.448080049574</v>
+        <v>1121.520058314906</v>
       </c>
       <c r="N5" t="n">
-        <v>1549.897808704472</v>
+        <v>1635.122736924594</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.2694146788</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T5" t="n">
-        <v>1784.768812238216</v>
+        <v>1813.668821661861</v>
       </c>
       <c r="U5" t="n">
-        <v>1784.768812238216</v>
+        <v>1712.337859856333</v>
       </c>
       <c r="V5" t="n">
-        <v>1784.768812238216</v>
+        <v>1712.337859856333</v>
       </c>
       <c r="W5" t="n">
-        <v>1413.769777206504</v>
+        <v>1712.337859856333</v>
       </c>
       <c r="X5" t="n">
-        <v>1276.13637826023</v>
+        <v>1322.88525478939</v>
       </c>
       <c r="Y5" t="n">
-        <v>1276.13637826023</v>
+        <v>926.3945457099908</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021442</v>
+        <v>766.2559293026757</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622364</v>
+        <v>615.6016988627679</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837168</v>
+        <v>485.5127314842482</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946045</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777363</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>114.1919230777363</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144824</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>156.6106416144824</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="M6" t="n">
-        <v>694.8694266245752</v>
+        <v>874.8450714282532</v>
       </c>
       <c r="N6" t="n">
-        <v>1233.128211634668</v>
+        <v>1388.447750037941</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>1902.05042864763</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413233</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.3482927843</v>
+        <v>1516.790804184831</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917587</v>
+        <v>1286.673558318118</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675983</v>
+        <v>1097.36648066813</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431056</v>
+        <v>918.052263743637</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>657.6486244837647</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6486244837647</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="D7" t="n">
-        <v>657.6486244837647</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="E7" t="n">
-        <v>657.6486244837647</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="F7" t="n">
-        <v>500.3226896967376</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G7" t="n">
-        <v>332.0686357961831</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>776.0210126956379</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>776.0210126956379</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>776.0210126956379</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>510.0416675164621</v>
       </c>
       <c r="W7" t="n">
-        <v>842.856643175066</v>
+        <v>226.7112654476397</v>
       </c>
       <c r="X7" t="n">
-        <v>842.856643175066</v>
+        <v>226.7112654476397</v>
       </c>
       <c r="Y7" t="n">
-        <v>842.856643175066</v>
+        <v>226.7112654476397</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.9059862831563</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="C8" t="n">
-        <v>454.7304847860868</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="D8" t="n">
-        <v>69.28935600275456</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="E8" t="n">
-        <v>69.28935600275456</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1985.548782066221</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1614.549747034508</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>1225.097141967565</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y8" t="n">
-        <v>1225.097141967565</v>
+        <v>579.3302549026308</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.7100132738371</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5048953398264</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="X10" t="n">
-        <v>937.0300931484951</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.9180319651384</v>
+        <v>847.4030175052487</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1711.843491816804</v>
+        <v>1452.672125045209</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1131.292898694334</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>817.6480450571956</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>486.8607953199341</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185755</v>
+        <v>486.8607953199341</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>145.4943149541313</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5057,7 +5057,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5066,13 +5066,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="T11" t="n">
         <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V11" t="n">
         <v>2405.267789429136</v>
@@ -5081,10 +5081,10 @@
         <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2040.541962382007</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="Y11" t="n">
-        <v>2040.541962382007</v>
+        <v>1781.370595610412</v>
       </c>
     </row>
     <row r="12">
@@ -5115,19 +5115,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510.0296513030277</v>
+        <v>369.0612828489762</v>
       </c>
       <c r="C13" t="n">
-        <v>411.6208085152107</v>
+        <v>270.6524400611594</v>
       </c>
       <c r="D13" t="n">
-        <v>327.7839705639192</v>
+        <v>186.8156021098681</v>
       </c>
       <c r="E13" t="n">
-        <v>244.0214335693157</v>
+        <v>103.0530651152649</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752045</v>
+        <v>103.0530651152649</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>103.0530651152649</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="V13" t="n">
-        <v>872.879564262819</v>
+        <v>1007.606986424698</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401905</v>
+        <v>796.0728595020692</v>
       </c>
       <c r="X13" t="n">
-        <v>661.3454373401905</v>
+        <v>633.7888124312462</v>
       </c>
       <c r="Y13" t="n">
-        <v>510.0296513030277</v>
+        <v>482.4730263940835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.935942880365</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529489</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>1079.371021131008</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550882</v>
+        <v>748.5837713937467</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312598</v>
+        <v>403.4856080699184</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5294,7 +5294,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
@@ -5309,19 +5309,19 @@
         <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2954.252057911387</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2954.252057911387</v>
+        <v>2685.444335538179</v>
       </c>
       <c r="W14" t="n">
-        <v>2751.985177299522</v>
+        <v>2685.444335538179</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.328847378772</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y14" t="n">
-        <v>2109.634413445568</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M15" t="n">
-        <v>689.8907773307967</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>1345.668748541356</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>385.6496467242598</v>
+        <v>472.8495292029529</v>
       </c>
       <c r="C16" t="n">
-        <v>385.6496467242598</v>
+        <v>472.8495292029529</v>
       </c>
       <c r="D16" t="n">
-        <v>385.6496467242598</v>
+        <v>472.8495292029529</v>
       </c>
       <c r="E16" t="n">
-        <v>301.8871097296562</v>
+        <v>389.0869922083493</v>
       </c>
       <c r="F16" t="n">
-        <v>216.3574500888229</v>
+        <v>303.5573325675163</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964277</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118225</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>988.1475398457742</v>
       </c>
       <c r="V16" t="n">
-        <v>872.8795642628191</v>
+        <v>988.1475398457742</v>
       </c>
       <c r="W16" t="n">
-        <v>661.3454373401904</v>
+        <v>899.8611058560458</v>
       </c>
       <c r="X16" t="n">
-        <v>499.0613902693673</v>
+        <v>737.5770587852228</v>
       </c>
       <c r="Y16" t="n">
-        <v>499.0613902693673</v>
+        <v>586.2612727480602</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.889542297544</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5546,7 +5546,7 @@
         <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,10 +5555,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>207.7175872278004</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>691.2836731261136</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1319.055322752795</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5662,28 +5662,28 @@
         <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
         <v>974.9038003296507</v>
@@ -5716,7 +5716,7 @@
         <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5768,7 +5768,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5780,7 +5780,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
@@ -5899,22 +5899,22 @@
         <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M22" t="n">
         <v>629.0093992567336</v>
@@ -5953,7 +5953,7 @@
         <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6069,22 +6069,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1286.571845448837</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1942.349816659396</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567331</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6218,10 +6218,10 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,10 +6230,10 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
         <v>2516.334910202705</v>
@@ -6245,22 +6245,22 @@
         <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377512</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W26" t="n">
         <v>2784.073622420327</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
         <v>429.0656615517127</v>
@@ -6376,58 +6376,58 @@
         <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796865</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192013</v>
+        <v>311.5288809192016</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225747</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904121</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286451</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>700.0178648958365</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3483.397387236565</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
         <v>1235.193651060917</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878067</v>
       </c>
       <c r="F31" t="n">
         <v>245.3698453879679</v>
@@ -6613,34 +6613,34 @@
         <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796863</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993084</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803397</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1114.673297010031</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1660.674197054611</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.758573419143</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038542</v>
+        <v>2770.308462001362</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170064</v>
+        <v>3118.495954132884</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3303.341514273833</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>342.9206752648151</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805523</v>
+        <v>507.0483151386148</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458865</v>
+        <v>804.9920140518616</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041659</v>
+        <v>988.1816480830707</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872944</v>
+        <v>1150.886415124779</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1270.762580901357</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395522</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000944</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012442</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584499</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
         <v>68.7795079292422</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7102,19 +7102,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N37" t="n">
-        <v>806.619390679759</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214671</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7342,16 +7342,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.619390679759</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924224</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7454,7 +7454,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7567,28 +7567,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7631,13 +7631,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
         <v>68.77950792924223</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7807,13 +7807,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960409</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M46" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N46" t="n">
         <v>812.1990332879427</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>373.6791200510544</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4043025621562</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,13 +8064,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837492</v>
+        <v>292.40210139702</v>
       </c>
       <c r="N3" t="n">
-        <v>359.0962971331938</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8222,10 +8222,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>233.6284767530288</v>
       </c>
       <c r="N5" t="n">
-        <v>663.7141768477826</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837492</v>
+        <v>611.1777065035425</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886039</v>
+        <v>604.1626973083972</v>
       </c>
       <c r="O6" t="n">
-        <v>397.4030112442354</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>261.9438791317315</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,25 +8453,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>311.2540453751045</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,7 +8532,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>238.3374974274122</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8547,7 +8547,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8699,13 +8699,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8769,16 +8769,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9006,10 +9006,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>165.8788395891214</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9018,13 +9018,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>236.6660863673584</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9717,25 +9717,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>125.4991521252098</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>228.1998931286863</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,7 +10197,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046924</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>340.2745745069887</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>167.2224721569267</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372781</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>249.6119301315473</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>60.76944991925481</v>
+        <v>84.67436304442477</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.4932009668169</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338907</v>
+        <v>42.32085509635107</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456087</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901679</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372781</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>183.604673534325</v>
       </c>
       <c r="W14" t="n">
-        <v>95.96652048091724</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>97.42475435993866</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177839</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>25.64271493934605</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901679</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>122.0152160035712</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>862137.1239242253</v>
+        <v>861234.8025035849</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>862137.1239242253</v>
+        <v>861234.8025035849</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771764.3867287125</v>
+        <v>771764.3867287126</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771764.3867287124</v>
+        <v>771764.3867287127</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>868240.8982059114</v>
+        <v>868240.8982059113</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432797.2274240564</v>
+        <v>432797.2274240563</v>
       </c>
       <c r="C2" t="n">
         <v>432797.2274240563</v>
       </c>
       <c r="D2" t="n">
-        <v>432797.2274240564</v>
+        <v>432797.2274240562</v>
       </c>
       <c r="E2" t="n">
-        <v>382461.6562185612</v>
+        <v>382461.656218561</v>
       </c>
       <c r="F2" t="n">
         <v>382461.656218561</v>
       </c>
       <c r="G2" t="n">
+        <v>432797.2274240561</v>
+      </c>
+      <c r="H2" t="n">
         <v>432797.2274240562</v>
-      </c>
-      <c r="H2" t="n">
-        <v>432797.2274240563</v>
       </c>
       <c r="I2" t="n">
         <v>432797.2274240563</v>
       </c>
       <c r="J2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240562</v>
       </c>
       <c r="K2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240562</v>
       </c>
       <c r="L2" t="n">
-        <v>432797.227424056</v>
+        <v>432797.2274240561</v>
       </c>
       <c r="M2" t="n">
         <v>432797.2274240562</v>
       </c>
       <c r="N2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240562</v>
       </c>
       <c r="O2" t="n">
         <v>432797.2274240563</v>
       </c>
       <c r="P2" t="n">
-        <v>432797.2274240564</v>
+        <v>432797.2274240563</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062187</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.3255366819</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728551</v>
+        <v>62456.24177539667</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081115</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277117</v>
+        <v>27767.69404277123</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190948</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190948</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>112797.3745002077</v>
+        <v>112797.3745002079</v>
       </c>
       <c r="F4" t="n">
-        <v>112797.3745002078</v>
+        <v>112797.3745002079</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15907.2299269081</v>
+        <v>-11856.55791949363</v>
       </c>
       <c r="C6" t="n">
-        <v>166297.7183649477</v>
+        <v>162002.0991145615</v>
       </c>
       <c r="D6" t="n">
-        <v>159705.6570252254</v>
+        <v>151969.3678018337</v>
       </c>
       <c r="E6" t="n">
-        <v>104355.7005444684</v>
+        <v>104145.9689977784</v>
       </c>
       <c r="F6" t="n">
-        <v>216478.2620185127</v>
+        <v>216268.5304718231</v>
       </c>
       <c r="G6" t="n">
-        <v>166645.8415800646</v>
+        <v>166645.8415800645</v>
       </c>
       <c r="H6" t="n">
-        <v>214071.1671167467</v>
+        <v>214071.1671167465</v>
       </c>
       <c r="I6" t="n">
         <v>214071.1671167467</v>
       </c>
       <c r="J6" t="n">
-        <v>1029.249519461177</v>
+        <v>7545.534674034003</v>
       </c>
       <c r="K6" t="n">
-        <v>207831.3987139637</v>
+        <v>207831.3987139636</v>
       </c>
       <c r="L6" t="n">
-        <v>152648.8097793421</v>
+        <v>148599.9725688701</v>
       </c>
       <c r="M6" t="n">
-        <v>171870.3376571235</v>
+        <v>170818.6426459354</v>
       </c>
       <c r="N6" t="n">
-        <v>214071.1671167467</v>
+        <v>214071.1671167465</v>
       </c>
       <c r="O6" t="n">
         <v>186303.4730739754</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660689</v>
+        <v>78.07030221924583</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551353</v>
+        <v>17.58004954287451</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.362224997165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.126871304279</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>138.229529890327</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,25 +27427,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>368.2801861127061</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>61.51507786325787</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,10 +27512,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>136.2843609381078</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>157.5646073603916</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27543,22 +27543,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>238.2539512977582</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27622,19 +27622,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>152.8775500822745</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>249.3010140594621</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27701,16 +27701,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>73.8671675877568</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>66.31852263746111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,7 +27822,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>35.52795894304558</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27831,10 +27831,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>179.4319196745051</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.07055412671849</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>351.4131653913775</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>22.31857408727991</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>220.1269184951917</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="17">
@@ -28746,19 +28746,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28980,16 +28980,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.636002634529092</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>35.71049010668821</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29217,31 +29217,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>28.0125002648524</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5.636002634528609</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.65052755599487</v>
+        <v>30.27223765901317</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431687</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901311</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
-        <v>86.65052755599572</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L32" t="n">
-        <v>48.65992738833347</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>81.10808140893403</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861254176</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224738</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.636002634528552</v>
       </c>
       <c r="N37" t="n">
         <v>130.3599693155844</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30280,7 +30280,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
         <v>130.3599693155844</v>
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634528316</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668787</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
       <c r="R43" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,16 +30879,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>5.636002634529092</v>
       </c>
       <c r="L46" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>220.4309503205627</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O2" t="n">
-        <v>28.84046513805984</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344373</v>
+        <v>200.0149793477081</v>
       </c>
       <c r="N3" t="n">
-        <v>273.7241842790272</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34942,10 +34942,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>83.90342515530153</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5956855099985</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O6" t="n">
-        <v>304.7154523553465</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>174.8605143124168</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>168.1956421958672</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>148.7405620940789</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35267,7 +35267,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35419,13 +35419,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257281</v>
+        <v>41.00382492257294</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488449</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>75.81849273220315</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35738,13 +35738,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257294</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488449</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>147.0691510340251</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133907</v>
       </c>
       <c r="L22" t="n">
-        <v>201.4959849287082</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36437,25 +36437,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>32.81159323632088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>193.8093140873206</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,10 +36613,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>273.363214567054</v>
+        <v>216.9849246700723</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>135.5123342397974</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.9167870021578</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907927</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>619.7932383009069</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,7 +36917,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553805</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044895</v>
       </c>
       <c r="L32" t="n">
-        <v>546.9632523565444</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.479168044982</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>525.5925267547203</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537662</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279118</v>
+        <v>82.70543230055083</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345617</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>300.9532312255018</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>110.3251060326262</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37470,7 +37470,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873205</v>
       </c>
       <c r="N37" t="n">
         <v>315.4000036905432</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644680799</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.636002634528801</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38175,16 +38175,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133907</v>
       </c>
       <c r="L46" t="n">
-        <v>171.421497456549</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
